--- a/xiecheng/新建 Microsoft Excel 工作表.xlsx
+++ b/xiecheng/新建 Microsoft Excel 工作表.xlsx
@@ -1,120 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c30053109\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7217A2F4-B1A3-463F-B0E1-6760BEB5DEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>P2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+  <si>
+    <t>DEMO</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>鸿蒙端setState渲染问题：连续多次setState会第一次渲染很慢，对应表现首屏很慢出现</t>
+  </si>
+  <si>
+    <t>待验证</t>
   </si>
   <si>
     <t>RN</t>
   </si>
   <si>
     <t>陈皓月</t>
-  </si>
-  <si>
-    <t>待验证</t>
-  </si>
-  <si>
-    <t>scrollview中添加样式paddingleft就会导致scrollview划不了</t>
-  </si>
-  <si>
-    <t>0615：可能和ROM相关，已有规避方案，携程联系业务屏蔽。
-0614：分析中
-0613：分析中
-0612：待分析</t>
-  </si>
-  <si>
-    <t>ScrollView内若嵌套ScrollView，外层ScrollView设置scrollEnabled=false不生效，
-仍然能滚动</t>
-  </si>
-  <si>
-    <t>harmony rn中使用pointerEvents="box-none"会响应子组建的触摸
-但是不会响应父组建的触摸。但是目前现状是该属性会导致子组建
-被穿透触摸。理论上该属性是为了让父组建被穿透触摸。
-（该问题已在0.74.1fabric android侧试过没有问题）</t>
-  </si>
-  <si>
-    <t>import React from 'react';
-import {
-  Text,
-  View,
-  TouchableOpacity,
-  Button,
-  ScrollView,
-  Dimensions,
-  Animated,
-} from 'react-native';
-const App = () =&gt; {
-  return (
-    &lt;View style={{flex: 1, justifyContent: 'center', alignItems: 'center'}}&gt;
-      &lt;ScrollView&gt;
-        {Array.from({length: 100}).map((_, index) =&gt; (
-          &lt;View
-            style={{
-              height: 40,
-              width: Dimensions.get('window').width - 20,
-              marginTop: 30,
-              backgroundColor: 'pink',
-            }}&gt;
-            &lt;Text&gt;{index}&lt;/Text&gt;
-          &lt;/View&gt;
-        ))}
-      &lt;/ScrollView&gt;
-      &lt;Animated.View
-        pointerEvents={'box-none'}
-        style={{
-          bottom: 0,
-          left: 0,
-          right: 0,
-          zIndex: 101,
-          position: 'absolute',
-          height: 300,
-          width: Dimensions.get('screen').width,
-          backgroundColor: 'orange',
-        }}&gt;
-        &lt;View
-          style={{width: 200, height: 200, backgroundColor: 'green'}}&gt;&lt;/View&gt;
-      &lt;/Animated.View&gt;
-    &lt;/View&gt;
-  );
-};
-export default App;</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>鸿蒙端setState渲染问题：连续多次setState会第一次渲染很慢，对应表现首屏很慢出现</t>
   </si>
   <si>
     <t>0723：本地测试没问题(disableConcurrentRoot: true,)
 0711：携程集成RN SDK后，在携程环境试下。
 0709：跟React 18状态更新批处理有关，可以将RNInstanceRegistry.ts中concurrentRoot设置为false禁用React 18特性。
 0625：待分析</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import React, { Component } from 'react';
+import { Button, View, Text } from 'react-native';
+/**
+ * Desc: 记录一些使用 Class 组件写法时遇到的问题：
+ *      1、多次连续执行 setState 修改同一个 state 的时候，harmony 的渲染时机似乎不太一样
+ *          ios/android 每次执行 setState 触发渲染的过程相对独立
+ *          harmony 执行 setState 触发渲染似乎会相互影响，连续执行的次数越多，渲染的时机约晚，且所有 setState 操作似乎会统一等到最后一起触发渲染
+ * 
+ */
+class HarmonyClassIssues extends Component {
+    constructor(props) {
+        super(props);
+        this.state = {
+            showText: '==== 点击按钮开始测试 ====',
+            testObj: {}
+        };
+        this.arr = [];
+        this.testTimes = 10; // 控制总共执行多少次setState，执行完后会计算平均耗时
+        this.isAble = true; // 控制按钮只能点击一次
+        this.startTime = 0;
+    }
+    // 随机生成一个 size 相同的大对象
+    createBigData = () =&gt; {
+        const obj = {};
+        for (let i = 0; i &lt; 100; i ++) {
+            const tempObj = {};
+            for (let j = 0; j &lt; 100; j ++) {
+                tempObj[`${Math.ceil(Math.random() * 1000000)}`] = `${Math.ceil(Math.random() * 1000000)}`;
+            }
+            obj[`${Math.ceil(Math.random() * 1000000)}`] = tempObj;
+        }
+        return obj;
+    };
+    // 单次触发 setState
+    changeStateValue() {
+        const timeA = new Date().getTime();
+        this.setState({
+            testObj: this.createBigData()
+        }, () =&gt; {
+            console.log(new Date().getTime());
+            const time = new Date().getTime() - timeA;
+            this.arr.push(time);
+            if (this.arr.length &gt;= this.testTimes) {
+                this.showCostTime();
+            }
+        });
+    }
+    testStart() {
+        this.startTime = new Date().getTime();
+        if (this.isAble) {
+            this.isAble = false;
+            this.setState({ showText: '====    测试中 ...   ====' });
+            setTimeout(() =&gt; {
+                for (let i = 0; i &lt; this.testTimes; i ++) {
+                    this.changeStateValue();
+                }
+            }, 0);
+        }
+    }
+    showCostTime() {
+        console.log('endtime:', new Date().getTime()- this.startTime);
+        const sum = this.arr.reduce((previous, current) =&gt; current += previous);
+        const avg = sum / this.arr.length;
+        const resultStr = `总耗时：${new Date().getTime()- this.startTime},${this.arr.length} 次的平均值：${avg} ms `;
+        // 控制台可以看到每一次执行的具体时间，可以看出 harmony 场景，前面执行的任务在等待后面执行的任务
+        console.log(this.arr);
+        console.log(resultStr);
+        this.setState({ showText: resultStr });
+    }
+    render() {
+        return (
+            &lt;View&gt;
+                &lt;Button title={'点击测试setState耗时(每次进页面只支持点一次)'} onPress={() =&gt; {
+                    this.testStart();
+                }} /&gt;
+                &lt;View style={{ alignItems: 'center' }}&gt;&lt;Text&gt;{this.state.showText}&lt;/Text&gt;&lt;/View&gt;
+            &lt;/View&gt;
+        );
+    }
+}
+export default HarmonyClassIssues;
+</t>
   </si>
   <si>
     <t>使用Animated.View做的卡片折叠动画卡顿，并且有时候onLayout有时候不会触发（当页面越复杂的时候复现越容易）</t>
@@ -351,7 +373,143 @@
 0605：和useNativeDriver相关</t>
   </si>
   <si>
-    <t>useNativedriver相关</t>
+    <t xml:space="preserve">import React from 'react';
+import { Animated, Dimensions, ScrollView, Text, View } from 'react-native';
+const WIDTH = Dimensions.get('window').width;
+export default class DbModal extends React.Component {
+    list1 = Array.from({ length: 3 }).map((item, index) =&gt; ({
+        text: index,
+        height: 157,
+        bgColor: '#cef',
+    }));
+    list2 = Array.from({ length: 11 }).map((item, index) =&gt; ({
+        text: this.list1.length + index,
+        height: 193,
+        bgColor: '#ecf',
+    }));
+    list3 = Array.from({ length: 5 }).map((item, index) =&gt; ({
+        text: index,
+        height: 157,
+        bgColor: '#aed',
+    }));
+    nativeScrollAniY = new Animated.Value(0);
+    state = {
+        fixedTop: 0,
+    };
+    interpolateScrollY = () =&gt; {
+        let fixedTranslateX = WIDTH;
+        const { fixedTop } = this.state;
+        const newFixedTop = fixedTop - 0.5;
+        const translateY = this.nativeScrollAniY.interpolate({
+            inputRange: [0, 83],
+            outputRange: [0, 83],
+        });
+        if (fixedTop &gt; 1) {
+            fixedTranslateX = this.nativeScrollAniY.interpolate({
+                inputRange: [0, newFixedTop - 0.001, newFixedTop],
+                outputRange: [WIDTH, WIDTH, 0],
+                extrapolate: 'clamp',
+            });
+        }
+        return { fixedTranslateX, translateY };
+    };
+    render() {
+        const { fixedTranslateX, translateY, } = this.interpolateScrollY();
+        return (
+            &lt;View&gt;
+                &lt;Animated.ScrollView
+                    onScroll={Animated.event([{ nativeEvent: { contentOffset: { y: this.nativeScrollAniY } } }], {
+                        useNativeDriver: true,
+                    })}
+                &gt;
+                &lt;AnimatedFixedView translateY={translateY} fixedTranslateX={fixedTranslateX} /&gt;
+                    {this.list1.map((item) =&gt; (
+                        &lt;View
+                            key={item.text}
+                            style={{
+                                height: item.height,
+                                marginBottom: 10,
+                                alignItems: 'center',
+                                justifyContent: 'center',
+                                backgroundColor: item.bgColor,
+                            }}
+                        &gt;
+                            &lt;Text&gt;{item.text}&lt;/Text&gt;
+                        &lt;/View&gt;
+                    ))}
+                    &lt;View
+                        onLayout={(e) =&gt; {
+                            this.setState({ fixedTop: e.nativeEvent.layout.y });
+                        }}
+                    &gt;
+                        &lt;FixedChildView /&gt;
+                    &lt;/View&gt;
+                    {this.list2.map((item) =&gt; (
+                        &lt;View
+                            key={item.text}
+                            style={{
+                                height: item.height,
+                                marginBottom: 10,
+                                alignItems: 'center',
+                                justifyContent: 'center',
+                                backgroundColor: item.bgColor,
+                            }}
+                        &gt;
+                            &lt;Text&gt;{item.text}&lt;/Text&gt;
+                        &lt;/View&gt;
+                    ))}
+                    {this.list3.map((item) =&gt; (
+                        &lt;View
+                            key={item.text}
+                            style={{
+                                height: item.height,
+                                marginBottom: 10,
+                                alignItems: 'center',
+                                justifyContent: 'center',
+                                backgroundColor: item.bgColor,
+                            }}
+                        &gt;
+                            &lt;Text&gt;{item.text}&lt;/Text&gt;
+                        &lt;/View&gt;
+                    ))}
+                &lt;/Animated.ScrollView&gt;
+            &lt;/View&gt;
+        );
+    }
+}
+function FixedChildView() {
+    return (
+        &lt;&gt;
+            &lt;View
+                style={{
+                    height: 65,
+                    alignItems: 'center',
+                    justifyContent: 'center',
+                    backgroundColor: '#308821',
+                }}
+            &gt;
+                &lt;Text&gt;吸顶组件！&lt;/Text&gt;
+            &lt;/View&gt;
+        &lt;/&gt;
+    );
+}
+function AnimatedFixedView({ fixedTranslateX, translateY }) {
+    return (
+        &lt;Animated.View
+            style={{
+                position: 'absolute',
+                top: 50,
+                left: 0,
+                right: 0,
+                zIndex: 11,
+                transform: [{ translateX: fixedTranslateX }, { translateY }],
+            }}
+        &gt;
+            &lt;FixedChildView /&gt;
+        &lt;/Animated.View&gt;
+    );
+}
+</t>
   </si>
   <si>
     <t>animated.loop循环动画设置 useNativeDriver:true 动画只会执行一次，ios上会循环执行</t>
@@ -362,7 +520,98 @@
 0605：和useNativeDriver相关</t>
   </si>
   <si>
-    <t>useNativeDriver设置为false，就没问题</t>
+    <t xml:space="preserve">import React from 'react';
+import { HeaderView, ViewPort, Page } from '@ctrip/crn';
+import { Animated, Easing, View, Text } from 'react-native';
+import styled from 'styled-components/native';
+const BottomLoadingIcon = styled.Text`
+    font-family: 'crn_font_ctrip_myctrip';
+    height: 12px;
+    width: 12px;
+    font-size: 12px;
+    text-align: center;
+    color: 'blue'
+`;
+export default class TestPage extends Page {
+    interpolateDeg;
+    animation;
+    constructor(props) {
+        super(props);
+        this.state = {
+            rotate: new Animated.Value(0),
+            isRunning: false
+        };
+        const { rotate } = this.state;
+        this.interpolateDeg = rotate.interpolate({
+            inputRange: [0, 1],
+            outputRange: ['0deg', '360deg']
+        });
+    }
+    componentDidMount() {
+        const { rotate } = this.state;
+        this.animation = Animated.loop(
+            Animated.timing(rotate, {
+                toValue: 1,
+                duration: 1000,
+                easing: Easing.linear,
+                // 启用时会有一个问题是：多次下拉刷新loading越转越慢直到转不动
+                useNativeDriver: true
+            })
+        );
+        // mount之后立即自动开始动画
+        this.startAnimation();
+    }
+    componentWillUnmount() {
+        this.stopAnimation(true);
+    }
+    startAnimation() {
+        const { isRunning } = this.state;
+        if (!isRunning &amp;&amp; this.animation) {
+            this.setState({
+                isRunning: true
+            }, () =&gt; {
+                this.animation.start();
+            });
+        }
+    }
+    stopAnimation(isUnmount) {
+        const { isRunning } = this.state;
+        if (this.animation &amp;&amp; isRunning) {
+            this.animation.stop();
+            if (!isUnmount) {
+                this.setState({
+                    isRunning: false
+                });
+            }
+        }
+    }
+    render() {
+        const { style } = this.props;
+        const { isRunning } = this.state;
+        const animatedStyle = {
+            // @ts-ignore
+            transform: [{ rotate: this.interpolateDeg }]
+        };
+        console.log('isRunning', isRunning)
+        return (
+            &lt;ViewPort&gt;
+                &lt;HeaderView title="TestCRN" page={this} /&gt;
+                &lt;View style={{
+                    width: 300, height: 50, flexDirection: 'row',
+                    justifyContent: 'center', alignItems: 'center',
+                    backgroundColor: 'pink'
+                }}
+                &gt;
+                    &lt;Animated.View style={isRunning ? animatedStyle : null}&gt;
+                        &lt;BottomLoadingIcon style={{ color: 'blue' }}&gt;l&lt;/BottomLoadingIcon&gt;
+                    &lt;/Animated.View&gt;
+                    &lt;Text style={{ fontSize: 14 }}&gt;加载中...&lt;/Text&gt;
+                &lt;/View&gt;
+            &lt;/ViewPort&gt;
+        );
+    }
+}
+</t>
   </si>
   <si>
     <t>harmony中获取滚动距离存在延时 将导致动画卡顿和错乱情况</t>
@@ -494,6 +743,10 @@
 &lt;/ScrollView&gt;</t>
   </si>
   <si>
+    <t>ScrollView内若嵌套ScrollView，外层ScrollView设置scrollEnabled=false不生效，
+仍然能滚动</t>
+  </si>
+  <si>
     <t>0723：会引入另一个小问题，继续分析
 0723：RN SDK修复。需要SWM看下影响，下午锁定。
 0717：ArkUi导致的问题，ArkUI确认中
@@ -539,40 +792,238 @@
 </t>
   </si>
   <si>
+    <t>harmony rn中使用pointerEvents="box-none"会响应子组建的触摸
+但是不会响应父组建的触摸。但是目前现状是该属性会导致子组建
+被穿透触摸。理论上该属性是为了让父组建被穿透触摸。
+（该问题已在0.74.1fabric android侧试过没有问题）</t>
+  </si>
+  <si>
     <t>0723：本地测试没问题。
 0711：已修复，已经与yiwen确认。</t>
   </si>
   <si>
-    <t>ArkTS的实现loadingView，内套在FlatList里面，转圈动画消失。放在View组件可以生效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>import React from 'react';
+import {
+  Text,
+  View,
+  TouchableOpacity,
+  Button,
+  ScrollView,
+  Dimensions,
+  Animated,
+} from 'react-native';
+const App = () =&gt; {
+  return (
+    &lt;View style={{flex: 1, justifyContent: 'center', alignItems: 'center'}}&gt;
+      &lt;ScrollView&gt;
+        {Array.from({length: 100}).map((_, index) =&gt; (
+          &lt;View
+            style={{
+              height: 40,
+              width: Dimensions.get('window').width - 20,
+              marginTop: 30,
+              backgroundColor: 'pink',
+            }}&gt;
+            &lt;Text&gt;{index}&lt;/Text&gt;
+          &lt;/View&gt;
+        ))}
+      &lt;/ScrollView&gt;
+      &lt;Animated.View
+        pointerEvents={'box-none'}
+        style={{
+          bottom: 0,
+          left: 0,
+          right: 0,
+          zIndex: 101,
+          position: 'absolute',
+          height: 300,
+          width: Dimensions.get('screen').width,
+          backgroundColor: 'orange',
+        }}&gt;
+        &lt;View
+          style={{width: 200, height: 200, backgroundColor: 'green'}}&gt;&lt;/View&gt;
+      &lt;/Animated.View&gt;
+    &lt;/View&gt;
+  );
+};
+export default App;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,12 +1032,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -596,77 +1239,366 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -715,7 +1647,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,26 +1680,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -800,23 +1715,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -987,425 +1885,345 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
-    <col min="8" max="8" width="53.44140625" customWidth="1"/>
-    <col min="12" max="12" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="8.89090909090909" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.1090909090909" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.27272727272727" style="2"/>
+    <col min="5" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="53.4454545454545" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="32.6636363636364" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" s="1" customFormat="1" ht="23" customHeight="1" spans="12:12">
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="45" customHeight="1" spans="1:12">
+      <c r="A2" s="3">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45496</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="65" customHeight="1" spans="1:12">
+      <c r="A3" s="3">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45496</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="4" ht="32" customHeight="1" spans="1:12">
+      <c r="A4" s="3">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D4" s="5">
         <v>45496</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="34" customHeight="1" spans="1:12">
+      <c r="A5" s="3">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45496</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="6" ht="41" customHeight="1" spans="1:12">
+      <c r="A6" s="3">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45496</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="87" customHeight="1" spans="1:12">
+      <c r="A7" s="3">
+        <v>83</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="D7" s="5">
         <v>45496</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="102" customHeight="1" spans="1:12">
+      <c r="A8" s="3">
+        <v>89</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45496</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="9" t="s">
-        <v>15</v>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="11">
-        <v>45496</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="9" ht="112" customHeight="1" spans="1:12">
+      <c r="A9" s="3">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5">
+        <v>45481</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>47</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11">
-        <v>45496</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>60</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="11">
-        <v>45496</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>83</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="11">
-        <v>45496</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="9" t="s">
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>89</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="11">
-        <v>45496</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>96</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="11">
-        <v>45481</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>64</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="7">
-        <v>45503</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" ht="78" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>66</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="10">
-        <v>45460</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>69</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10">
-        <v>45503</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>75</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="0.984251968503937" bottom="0.984251968503937" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;F&amp;R文档密级</oddHeader>
     <oddFooter>&amp;L&amp;D&amp;C华为保密信息,未经授权禁止扩散&amp;R第&amp;P页，共&amp;N页</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <legacyDrawingHF r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;F&amp;R文档密级</oddHeader>
     <oddFooter>&amp;L&amp;D&amp;C华为机密，未经许可不得扩散&amp;R第&amp;P页，共&amp;N页</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <legacyDrawingHF r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;F&amp;R文档密级</oddHeader>
     <oddFooter>&amp;L&amp;D&amp;C华为机密，未经许可不得扩散&amp;R第&amp;P页，共&amp;N页</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <legacyDrawingHF r:id="rId1"/>
 </worksheet>
 </file>